--- a/src/test/resources/data/DatosDePrueba.xlsx
+++ b/src/test/resources/data/DatosDePrueba.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domingo.Saavedra\eclipse-workspace\ManejoDataExcel\src\test\resources\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mmunozt\Desktop\TareaGIT\DemoPageObjectModel\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2349522E-6E45-4BEB-AFE2-954AE5B9B249}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18960" windowHeight="4632" activeTab="3" xr2:uid="{25DFC362-718D-4BFC-B138-18DEF15053F2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16005" windowHeight="3135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>CasosDePrueba</t>
   </si>
@@ -86,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -469,58 +468,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24AA5191-D1BC-4AF6-B797-C72481824686}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A0FD674-DC7B-4342-BFB3-2872F98A41D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5EE90D-947A-4C17-87F2-EEC26A3C02BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F2EBA7-A1FC-44F4-808C-F385359BC14B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -534,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -542,7 +541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -553,7 +552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -567,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -590,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -607,9 +606,7 @@
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -617,26 +614,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3513353-1853-45D6-B248-6300FC550C8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AC0D07-1E3D-4056-B1A8-55F652314E4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
